--- a/Blood Glucose Readings Sample.xlsx
+++ b/Blood Glucose Readings Sample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clock\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8899F3E-8930-47B0-A848-7550B8359253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31337198-C5C7-41F5-AB33-C73826A784FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7361EE35-3D7C-4807-A2B6-0F0F4725CD8D}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Key" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Readings!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Readings!$A$1:$L$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Readings!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
   <si>
     <t>Date</t>
   </si>
@@ -133,7 +133,37 @@
     <t>Mounjaro 12.5</t>
   </si>
   <si>
+    <t>Finger EX</t>
+  </si>
+  <si>
+    <t>Time EX</t>
+  </si>
+  <si>
+    <t>Value EX</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
     <t>Sunday</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Extra reading to confirm CGM reading</t>
   </si>
 </sst>
 </file>
@@ -225,7 +255,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -275,19 +305,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -302,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -312,9 +329,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -335,13 +349,10 @@
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -756,7 +767,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -765,16 +776,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="40" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="13.28515625" customWidth="1"/>
+    <col min="1" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -792,238 +803,266 @@
       <c r="G1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
-        <v>45599</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>30</v>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>45663</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" s="1">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="E2" s="8">
-        <v>94</v>
+        <v>0.28819444444444442</v>
+      </c>
+      <c r="E2" s="7">
+        <v>93</v>
       </c>
       <c r="F2">
         <v>4</v>
       </c>
       <c r="G2" s="1">
+        <v>0.79374999999999996</v>
+      </c>
+      <c r="H2" s="7">
+        <v>106</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>45664</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.26180555555555557</v>
+      </c>
+      <c r="E3" s="7">
+        <v>85</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.7944444444444444</v>
+      </c>
+      <c r="H3" s="7">
+        <v>94</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>45665</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="E4" s="7">
+        <v>97</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
         <v>0.79513888888888884</v>
       </c>
-      <c r="H2" s="8">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
-        <f t="shared" ref="A3:A9" si="0">A2+1</f>
-        <v>45600</v>
-      </c>
-      <c r="B3" s="12" t="str">
-        <f t="shared" ref="B3" si="1">TEXT(A3,"dddd")</f>
-        <v>Monday</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C9" si="2">IF(C2+1&gt;4,1,C2+1)</f>
+      <c r="H4" s="7">
+        <v>101</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>45666</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.25763888888888886</v>
+      </c>
+      <c r="E5" s="7">
+        <v>86</v>
+      </c>
+      <c r="F5">
         <v>3</v>
       </c>
-      <c r="D3" s="1">
-        <v>0.25972222222222224</v>
-      </c>
-      <c r="E3" s="8">
-        <v>85</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F9" si="3">IF(F2+1&gt;4,1,F2+1)</f>
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.79374999999999996</v>
-      </c>
-      <c r="H3" s="8">
+      <c r="G5" s="1">
+        <v>0.79583333333333328</v>
+      </c>
+      <c r="H5" s="7">
+        <v>103</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>45667</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.26111111111111113</v>
+      </c>
+      <c r="E6" s="7">
         <v>99</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <f t="shared" si="0"/>
-        <v>45601</v>
-      </c>
-      <c r="B4" s="12" t="str">
-        <f t="shared" ref="B4" si="4">TEXT(A4,"dddd")</f>
-        <v>Tuesday</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="2"/>
+      <c r="F6">
         <v>4</v>
       </c>
-      <c r="D4" s="1">
-        <v>0.2590277777777778</v>
-      </c>
-      <c r="E4" s="8">
-        <v>95</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="G6" s="1">
         <v>0.79652777777777772</v>
       </c>
-      <c r="H4" s="8">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <f t="shared" si="0"/>
-        <v>45602</v>
-      </c>
-      <c r="B5" s="12" t="str">
-        <f t="shared" ref="B5" si="5">TEXT(A5,"dddd")</f>
-        <v>Wednesday</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.26041666666666669</v>
-      </c>
-      <c r="E5" s="8">
-        <v>92</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="3"/>
+      <c r="H6" s="7">
+        <v>106</v>
+      </c>
+      <c r="I6">
         <v>3</v>
       </c>
-      <c r="G5" s="1">
-        <v>0.7944444444444444</v>
-      </c>
-      <c r="H5" s="8">
-        <v>95</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <f t="shared" si="0"/>
-        <v>45603</v>
-      </c>
-      <c r="B6" s="12" t="str">
-        <f t="shared" ref="B6" si="6">TEXT(A6,"dddd")</f>
-        <v>Thursday</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.26180555555555557</v>
-      </c>
-      <c r="E6" s="8">
-        <v>92</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.79305555555555551</v>
-      </c>
-      <c r="H6" s="8">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
-        <f t="shared" si="0"/>
-        <v>45604</v>
-      </c>
-      <c r="B7" s="12" t="str">
-        <f t="shared" ref="B7" si="7">TEXT(A7,"dddd")</f>
-        <v>Friday</v>
+      <c r="J6" s="1">
+        <v>0.65069444444444446</v>
+      </c>
+      <c r="K6" s="7">
+        <v>72</v>
+      </c>
+      <c r="L6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>45668</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="C7">
-        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="D7" s="1">
-        <v>0.26111111111111113</v>
-      </c>
-      <c r="E7" s="8">
-        <v>88</v>
+        <v>0.3034722222222222</v>
+      </c>
+      <c r="E7" s="7">
+        <v>94</v>
       </c>
       <c r="F7">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G7" s="1">
         <v>0.79513888888888884</v>
       </c>
-      <c r="H7" s="8">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <f t="shared" si="0"/>
-        <v>45605</v>
-      </c>
-      <c r="B8" s="12" t="str">
-        <f t="shared" ref="B8" si="8">TEXT(A8,"dddd")</f>
-        <v>Saturday</v>
+      <c r="H7" s="7">
+        <v>126</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="K7" s="7">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>45669</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="C8">
-        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="D8" s="1">
-        <v>0.30486111111111114</v>
-      </c>
-      <c r="E8" s="8">
-        <v>90</v>
+        <v>0.33541666666666664</v>
+      </c>
+      <c r="E8" s="7">
+        <v>95</v>
       </c>
       <c r="F8">
-        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G8" s="1">
-        <v>0.79583333333333328</v>
-      </c>
-      <c r="H8" s="8">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <f t="shared" si="0"/>
-        <v>45606</v>
-      </c>
-      <c r="B9" s="12" t="str">
-        <f t="shared" ref="B9" si="9">TEXT(A9,"dddd")</f>
-        <v>Sunday</v>
+        <v>0.7944444444444444</v>
+      </c>
+      <c r="H8" s="7">
+        <v>123</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>45670</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="C9">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F9">
-        <f t="shared" si="3"/>
         <v>3</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1162,7 +1201,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H2:H8</xm:sqref>
+          <xm:sqref>H2:H8 K2:K8</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1191,16 +1230,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="27"/>
-      <c r="E1" s="25" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1226,14 +1265,14 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="17">
+      <c r="B3" s="7"/>
+      <c r="C3" s="16">
         <v>53</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="16">
         <v>53</v>
       </c>
     </row>
@@ -1241,19 +1280,19 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>54</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>69</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>54</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="13">
         <v>69</v>
       </c>
     </row>
@@ -1261,19 +1300,19 @@
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>70</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>130</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>70</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>180</v>
       </c>
     </row>
@@ -1281,19 +1320,19 @@
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <v>131</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="18">
         <v>249</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="18">
         <v>181</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="18">
         <v>249</v>
       </c>
     </row>
@@ -1301,29 +1340,29 @@
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <v>250</v>
       </c>
-      <c r="C7" s="18"/>
+      <c r="C7" s="17"/>
       <c r="E7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="17">
         <v>250</v>
       </c>
-      <c r="G7" s="18"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="E10" s="25" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="E10" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -1349,19 +1388,19 @@
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>4</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>5.6</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="9">
         <v>7</v>
       </c>
     </row>
@@ -1369,19 +1408,19 @@
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="21">
         <v>5.7</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="21">
         <v>6.4</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="21">
         <v>7.1</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="21">
         <v>8.9</v>
       </c>
     </row>
@@ -1389,14 +1428,14 @@
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="22">
         <v>6.5</v>
       </c>
       <c r="C14" s="4"/>
       <c r="E14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="22">
         <v>9</v>
       </c>
       <c r="G14" s="4"/>
@@ -1414,16 +1453,16 @@
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
-      <c r="E17" s="25" t="s">
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="E17" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="27"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -1449,17 +1488,17 @@
       <c r="A19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="19">
         <v>4</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="19">
         <v>5.6</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="9">
+      <c r="F19" s="15"/>
+      <c r="G19" s="8">
         <v>99</v>
       </c>
     </row>
@@ -1467,19 +1506,19 @@
       <c r="A20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="20">
         <v>5.7</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="20">
         <v>7</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="18">
         <v>100</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="18">
         <v>125</v>
       </c>
     </row>
@@ -1487,28 +1526,28 @@
       <c r="A21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="21">
         <v>7.1</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="21">
         <v>8.9</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="17">
         <v>126</v>
       </c>
-      <c r="G21" s="16"/>
+      <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="22">
         <v>9</v>
       </c>
-      <c r="C22" s="15"/>
+      <c r="C22" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Blood Glucose Readings Sample.xlsx
+++ b/Blood Glucose Readings Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clock\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31337198-C5C7-41F5-AB33-C73826A784FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D500753E-7E11-433D-A93C-8A7E7BD8DD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7361EE35-3D7C-4807-A2B6-0F0F4725CD8D}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -82,12 +82,6 @@
     <t>Very High</t>
   </si>
   <si>
-    <t>A1c (Non-Diabetic)</t>
-  </si>
-  <si>
-    <t>A1c (Diabetic)</t>
-  </si>
-  <si>
     <t>Controlled</t>
   </si>
   <si>
@@ -130,9 +124,6 @@
     <t>Value PM</t>
   </si>
   <si>
-    <t>Mounjaro 12.5</t>
-  </si>
-  <si>
     <t>Finger EX</t>
   </si>
   <si>
@@ -142,28 +133,16 @@
     <t>Value EX</t>
   </si>
   <si>
-    <t>Tuesday</t>
+    <t>Extra reading to validate CGM reading</t>
+  </si>
+  <si>
+    <t>A1c (No Diabetes Present)</t>
+  </si>
+  <si>
+    <t>A1c (Diabetes Present)</t>
   </si>
   <si>
     <t>Wednesday</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>Saturday</t>
-  </si>
-  <si>
-    <t>Sunday</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>Extra reading to confirm CGM reading</t>
   </si>
 </sst>
 </file>
@@ -767,11 +746,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,31 +768,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>2</v>
@@ -821,248 +800,523 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45663</v>
+        <v>45658</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.3034722222222222</v>
+      </c>
+      <c r="E2" s="7">
+        <v>82</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.79305555555555551</v>
+      </c>
+      <c r="H2" s="7">
+        <v>123</v>
+      </c>
+      <c r="I2">
         <v>2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.28819444444444442</v>
-      </c>
-      <c r="E2" s="7">
-        <v>93</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.79374999999999996</v>
-      </c>
-      <c r="H2" s="7">
-        <v>106</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
       </c>
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>45664</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>33</v>
+        <f t="shared" ref="A3:A16" si="0">A2+1</f>
+        <v>45659</v>
+      </c>
+      <c r="B3" s="11" t="str">
+        <f t="shared" ref="B3" si="1">TEXT(A3,"dddd")</f>
+        <v>Thursday</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <f t="shared" ref="C3:C16" si="2">IF(C2+1&gt;4,1,C2+1)</f>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>0.26180555555555557</v>
+        <v>0.25833333333333336</v>
       </c>
       <c r="E3" s="7">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <f t="shared" ref="F3:F16" si="3">IF(F2+1&gt;4,1,F2+1)</f>
+        <v>4</v>
       </c>
       <c r="G3" s="1">
         <v>0.7944444444444444</v>
       </c>
       <c r="H3" s="7">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <f t="shared" ref="I3:I16" si="4">IF(I2+1&gt;4,1,I2+1)</f>
+        <v>3</v>
       </c>
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>45665</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>34</v>
+        <f t="shared" si="0"/>
+        <v>45660</v>
+      </c>
+      <c r="B4" s="11" t="str">
+        <f t="shared" ref="B4" si="5">TEXT(A4,"dddd")</f>
+        <v>Friday</v>
       </c>
       <c r="C4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.26180555555555557</v>
+      </c>
+      <c r="E4" s="7">
+        <v>92</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.79791666666666672</v>
+      </c>
+      <c r="H4" s="7">
+        <v>89</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="D4" s="1">
-        <v>0.26041666666666669</v>
-      </c>
-      <c r="E4" s="7">
-        <v>97</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.79513888888888884</v>
-      </c>
-      <c r="H4" s="7">
-        <v>101</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
       <c r="K4" s="7"/>
-      <c r="L4" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
-        <v>45666</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>35</v>
+        <f t="shared" si="0"/>
+        <v>45661</v>
+      </c>
+      <c r="B5" s="11" t="str">
+        <f t="shared" ref="B5" si="6">TEXT(A5,"dddd")</f>
+        <v>Saturday</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="D5" s="1">
-        <v>0.25763888888888886</v>
+        <v>0.3034722222222222</v>
       </c>
       <c r="E5" s="7">
         <v>86</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="G5" s="1">
-        <v>0.79583333333333328</v>
+        <v>0.79791666666666672</v>
       </c>
       <c r="H5" s="7">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
-        <v>45667</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>36</v>
+        <f t="shared" si="0"/>
+        <v>45662</v>
+      </c>
+      <c r="B6" s="11" t="str">
+        <f t="shared" ref="B6" si="7">TEXT(A6,"dddd")</f>
+        <v>Sunday</v>
       </c>
       <c r="C6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.35625000000000001</v>
+      </c>
+      <c r="E6" s="7">
+        <v>92</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="H6" s="7">
+        <v>121</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="D6" s="1">
-        <v>0.26111111111111113</v>
-      </c>
-      <c r="E6" s="7">
-        <v>99</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.79652777777777772</v>
-      </c>
-      <c r="H6" s="7">
-        <v>106</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.65069444444444446</v>
-      </c>
-      <c r="K6" s="7">
-        <v>72</v>
-      </c>
-      <c r="L6" t="s">
-        <v>40</v>
-      </c>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
-        <v>45668</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>37</v>
+        <f t="shared" si="0"/>
+        <v>45663</v>
+      </c>
+      <c r="B7" s="11" t="str">
+        <f t="shared" ref="B7" si="8">TEXT(A7,"dddd")</f>
+        <v>Monday</v>
       </c>
       <c r="C7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.28819444444444442</v>
+      </c>
+      <c r="E7" s="7">
+        <v>93</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.79374999999999996</v>
+      </c>
+      <c r="H7" s="7">
+        <v>106</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="D7" s="1">
-        <v>0.3034722222222222</v>
-      </c>
-      <c r="E7" s="7">
-        <v>94</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.79513888888888884</v>
-      </c>
-      <c r="H7" s="7">
-        <v>126</v>
-      </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="K7" s="7">
-        <v>83</v>
-      </c>
-      <c r="L7" t="s">
-        <v>40</v>
-      </c>
+      <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <v>45669</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>38</v>
+        <f t="shared" si="0"/>
+        <v>45664</v>
+      </c>
+      <c r="B8" s="11" t="str">
+        <f t="shared" ref="B8" si="9">TEXT(A8,"dddd")</f>
+        <v>Tuesday</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="D8" s="1">
-        <v>0.33541666666666664</v>
+        <v>0.26180555555555557</v>
       </c>
       <c r="E8" s="7">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="G8" s="1">
         <v>0.7944444444444444</v>
       </c>
       <c r="H8" s="7">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
+        <f t="shared" si="0"/>
+        <v>45665</v>
+      </c>
+      <c r="B9" s="11" t="str">
+        <f t="shared" ref="B9" si="10">TEXT(A9,"dddd")</f>
+        <v>Wednesday</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="E9" s="7">
+        <v>97</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="H9" s="7">
+        <v>101</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <f t="shared" si="0"/>
+        <v>45666</v>
+      </c>
+      <c r="B10" s="11" t="str">
+        <f t="shared" ref="B10" si="11">TEXT(A10,"dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.25763888888888886</v>
+      </c>
+      <c r="E10" s="7">
+        <v>86</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.79583333333333328</v>
+      </c>
+      <c r="H10" s="7">
+        <v>103</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <f t="shared" si="0"/>
+        <v>45667</v>
+      </c>
+      <c r="B11" s="11" t="str">
+        <f t="shared" ref="B11" si="12">TEXT(A11,"dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.26111111111111113</v>
+      </c>
+      <c r="E11" s="7">
+        <v>99</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.79652777777777772</v>
+      </c>
+      <c r="H11" s="7">
+        <v>106</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.65069444444444446</v>
+      </c>
+      <c r="K11" s="7">
+        <v>72</v>
+      </c>
+      <c r="L11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <f>A11+1</f>
+        <v>45668</v>
+      </c>
+      <c r="B12" s="11" t="str">
+        <f t="shared" ref="B12" si="13">TEXT(A12,"dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="C12">
+        <f>IF(C11+1&gt;4,1,C11+1)</f>
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.3034722222222222</v>
+      </c>
+      <c r="E12" s="7">
+        <v>94</v>
+      </c>
+      <c r="F12">
+        <f>IF(F11+1&gt;4,1,F11+1)</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="H12" s="7">
+        <v>126</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="K12" s="7">
+        <v>83</v>
+      </c>
+      <c r="L12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <f t="shared" si="0"/>
+        <v>45669</v>
+      </c>
+      <c r="B13" s="11" t="str">
+        <f t="shared" ref="B13" si="14">TEXT(A13,"dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.33541666666666664</v>
+      </c>
+      <c r="E13" s="7">
+        <v>95</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.7944444444444444</v>
+      </c>
+      <c r="H13" s="7">
+        <v>123</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <f t="shared" si="0"/>
         <v>45670</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9">
+      <c r="B14" s="11" t="str">
+        <f t="shared" ref="B14" si="15">TEXT(A14,"dddd")</f>
+        <v>Monday</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F9">
+      <c r="D14" s="1">
+        <v>0.26458333333333334</v>
+      </c>
+      <c r="E14" s="7">
+        <v>89</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="I9">
+      <c r="G14" s="1">
+        <v>0.79722222222222228</v>
+      </c>
+      <c r="H14" s="7">
+        <v>114</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="4"/>
         <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <f t="shared" si="0"/>
+        <v>45671</v>
+      </c>
+      <c r="B15" s="11" t="str">
+        <f t="shared" ref="B15" si="16">TEXT(A15,"dddd")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.25972222222222224</v>
+      </c>
+      <c r="E15" s="7">
+        <v>92</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.7944444444444444</v>
+      </c>
+      <c r="H15" s="7">
+        <v>89</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <f t="shared" si="0"/>
+        <v>45672</v>
+      </c>
+      <c r="B16" s="11" t="str">
+        <f t="shared" ref="B16" si="17">TEXT(A16,"dddd")</f>
+        <v>Wednesday</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1135,7 +1389,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E2:E8</xm:sqref>
+          <xm:sqref>E2:E15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="1135" operator="greaterThanOrEqual" id="{5955FAF3-940C-41EF-A8FE-1688B278707E}">
@@ -1201,7 +1455,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H2:H8 K2:K8</xm:sqref>
+          <xm:sqref>K2:K13 H2:H15</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1354,12 +1608,12 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="25"/>
       <c r="E10" s="23" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="25"/>
@@ -1395,7 +1649,7 @@
         <v>5.6</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F12" s="9">
         <v>4</v>
@@ -1406,7 +1660,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="21">
         <v>5.7</v>
@@ -1415,7 +1669,7 @@
         <v>6.4</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F13" s="21">
         <v>7.1</v>
@@ -1426,14 +1680,14 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" s="22">
         <v>6.5</v>
       </c>
       <c r="C14" s="4"/>
       <c r="E14" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F14" s="22">
         <v>9</v>
@@ -1454,12 +1708,12 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
       <c r="E17" s="23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="25"/>
@@ -1495,7 +1749,7 @@
         <v>5.6</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="8">
@@ -1504,7 +1758,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B20" s="20">
         <v>5.7</v>
@@ -1513,7 +1767,7 @@
         <v>7</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F20" s="18">
         <v>100</v>
@@ -1524,7 +1778,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B21" s="21">
         <v>7.1</v>
@@ -1533,7 +1787,7 @@
         <v>8.9</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F21" s="17">
         <v>126</v>
@@ -1542,7 +1796,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22" s="22">
         <v>9</v>

--- a/Blood Glucose Readings Sample.xlsx
+++ b/Blood Glucose Readings Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clock\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D500753E-7E11-433D-A93C-8A7E7BD8DD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B0FC70-07AE-4917-BAA4-D8A30AB3551C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7361EE35-3D7C-4807-A2B6-0F0F4725CD8D}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -82,30 +82,6 @@
     <t>Very High</t>
   </si>
   <si>
-    <t>Controlled</t>
-  </si>
-  <si>
-    <t>Prediabetes</t>
-  </si>
-  <si>
-    <t>Uncontrolled</t>
-  </si>
-  <si>
-    <t>Diabetes</t>
-  </si>
-  <si>
-    <t>Critical</t>
-  </si>
-  <si>
-    <t>A1c (Combined)</t>
-  </si>
-  <si>
-    <t>Fasting Plasma Glucose</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
     <t>Finger AM</t>
   </si>
   <si>
@@ -134,12 +110,6 @@
   </si>
   <si>
     <t>Extra reading to validate CGM reading</t>
-  </si>
-  <si>
-    <t>A1c (No Diabetes Present)</t>
-  </si>
-  <si>
-    <t>A1c (Diabetes Present)</t>
   </si>
   <si>
     <t>Wednesday</t>
@@ -149,12 +119,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  <numFmts count="1">
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,20 +154,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF92D050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -298,19 +252,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -319,15 +269,9 @@
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -768,42 +712,42 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="6">
         <v>45658</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>33</v>
+      <c r="B2" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -811,7 +755,7 @@
       <c r="D2" s="1">
         <v>0.3034722222222222</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="4">
         <v>82</v>
       </c>
       <c r="F2">
@@ -820,20 +764,20 @@
       <c r="G2" s="1">
         <v>0.79305555555555551</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="4">
         <v>123</v>
       </c>
       <c r="I2">
         <v>2</v>
       </c>
-      <c r="K2" s="7"/>
+      <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="6">
         <f t="shared" ref="A3:A16" si="0">A2+1</f>
         <v>45659</v>
       </c>
-      <c r="B3" s="11" t="str">
+      <c r="B3" s="7" t="str">
         <f t="shared" ref="B3" si="1">TEXT(A3,"dddd")</f>
         <v>Thursday</v>
       </c>
@@ -844,7 +788,7 @@
       <c r="D3" s="1">
         <v>0.25833333333333336</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="4">
         <v>90</v>
       </c>
       <c r="F3">
@@ -854,21 +798,21 @@
       <c r="G3" s="1">
         <v>0.7944444444444444</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="4">
         <v>95</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I16" si="4">IF(I2+1&gt;4,1,I2+1)</f>
         <v>3</v>
       </c>
-      <c r="K3" s="7"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="6">
         <f t="shared" si="0"/>
         <v>45660</v>
       </c>
-      <c r="B4" s="11" t="str">
+      <c r="B4" s="7" t="str">
         <f t="shared" ref="B4" si="5">TEXT(A4,"dddd")</f>
         <v>Friday</v>
       </c>
@@ -879,7 +823,7 @@
       <c r="D4" s="1">
         <v>0.26180555555555557</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="4">
         <v>92</v>
       </c>
       <c r="F4">
@@ -889,21 +833,21 @@
       <c r="G4" s="1">
         <v>0.79791666666666672</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="4">
         <v>89</v>
       </c>
       <c r="I4">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K4" s="7"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="6">
         <f t="shared" si="0"/>
         <v>45661</v>
       </c>
-      <c r="B5" s="11" t="str">
+      <c r="B5" s="7" t="str">
         <f t="shared" ref="B5" si="6">TEXT(A5,"dddd")</f>
         <v>Saturday</v>
       </c>
@@ -914,7 +858,7 @@
       <c r="D5" s="1">
         <v>0.3034722222222222</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="4">
         <v>86</v>
       </c>
       <c r="F5">
@@ -924,21 +868,21 @@
       <c r="G5" s="1">
         <v>0.79791666666666672</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="4">
         <v>85</v>
       </c>
       <c r="I5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K5" s="7"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>45662</v>
       </c>
-      <c r="B6" s="11" t="str">
+      <c r="B6" s="7" t="str">
         <f t="shared" ref="B6" si="7">TEXT(A6,"dddd")</f>
         <v>Sunday</v>
       </c>
@@ -949,7 +893,7 @@
       <c r="D6" s="1">
         <v>0.35625000000000001</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="4">
         <v>92</v>
       </c>
       <c r="F6">
@@ -959,21 +903,21 @@
       <c r="G6" s="1">
         <v>0.79513888888888884</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="4">
         <v>121</v>
       </c>
       <c r="I6">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="K6" s="7"/>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>45663</v>
       </c>
-      <c r="B7" s="11" t="str">
+      <c r="B7" s="7" t="str">
         <f t="shared" ref="B7" si="8">TEXT(A7,"dddd")</f>
         <v>Monday</v>
       </c>
@@ -984,7 +928,7 @@
       <c r="D7" s="1">
         <v>0.28819444444444442</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="4">
         <v>93</v>
       </c>
       <c r="F7">
@@ -994,21 +938,21 @@
       <c r="G7" s="1">
         <v>0.79374999999999996</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="4">
         <v>106</v>
       </c>
       <c r="I7">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="K7" s="7"/>
+      <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>45664</v>
       </c>
-      <c r="B8" s="11" t="str">
+      <c r="B8" s="7" t="str">
         <f t="shared" ref="B8" si="9">TEXT(A8,"dddd")</f>
         <v>Tuesday</v>
       </c>
@@ -1019,7 +963,7 @@
       <c r="D8" s="1">
         <v>0.26180555555555557</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="4">
         <v>85</v>
       </c>
       <c r="F8">
@@ -1029,21 +973,21 @@
       <c r="G8" s="1">
         <v>0.7944444444444444</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="4">
         <v>94</v>
       </c>
       <c r="I8">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K8" s="7"/>
+      <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>45665</v>
       </c>
-      <c r="B9" s="11" t="str">
+      <c r="B9" s="7" t="str">
         <f t="shared" ref="B9" si="10">TEXT(A9,"dddd")</f>
         <v>Wednesday</v>
       </c>
@@ -1054,7 +998,7 @@
       <c r="D9" s="1">
         <v>0.26041666666666669</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="4">
         <v>97</v>
       </c>
       <c r="F9">
@@ -1064,21 +1008,21 @@
       <c r="G9" s="1">
         <v>0.79513888888888884</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="4">
         <v>101</v>
       </c>
       <c r="I9">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K9" s="7"/>
+      <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>45666</v>
       </c>
-      <c r="B10" s="11" t="str">
+      <c r="B10" s="7" t="str">
         <f t="shared" ref="B10" si="11">TEXT(A10,"dddd")</f>
         <v>Thursday</v>
       </c>
@@ -1089,7 +1033,7 @@
       <c r="D10" s="1">
         <v>0.25763888888888886</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="4">
         <v>86</v>
       </c>
       <c r="F10">
@@ -1099,21 +1043,21 @@
       <c r="G10" s="1">
         <v>0.79583333333333328</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="4">
         <v>103</v>
       </c>
       <c r="I10">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="K10" s="7"/>
+      <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>45667</v>
       </c>
-      <c r="B11" s="11" t="str">
+      <c r="B11" s="7" t="str">
         <f t="shared" ref="B11" si="12">TEXT(A11,"dddd")</f>
         <v>Friday</v>
       </c>
@@ -1124,7 +1068,7 @@
       <c r="D11" s="1">
         <v>0.26111111111111113</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="4">
         <v>99</v>
       </c>
       <c r="F11">
@@ -1134,7 +1078,7 @@
       <c r="G11" s="1">
         <v>0.79652777777777772</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="4">
         <v>106</v>
       </c>
       <c r="I11">
@@ -1144,19 +1088,19 @@
       <c r="J11" s="1">
         <v>0.65069444444444446</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="4">
         <v>72</v>
       </c>
       <c r="L11" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="6">
         <f>A11+1</f>
         <v>45668</v>
       </c>
-      <c r="B12" s="11" t="str">
+      <c r="B12" s="7" t="str">
         <f t="shared" ref="B12" si="13">TEXT(A12,"dddd")</f>
         <v>Saturday</v>
       </c>
@@ -1167,7 +1111,7 @@
       <c r="D12" s="1">
         <v>0.3034722222222222</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="4">
         <v>94</v>
       </c>
       <c r="F12">
@@ -1177,7 +1121,7 @@
       <c r="G12" s="1">
         <v>0.79513888888888884</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="4">
         <v>126</v>
       </c>
       <c r="I12">
@@ -1187,19 +1131,19 @@
       <c r="J12" s="1">
         <v>0.45</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="4">
         <v>83</v>
       </c>
       <c r="L12" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>45669</v>
       </c>
-      <c r="B13" s="11" t="str">
+      <c r="B13" s="7" t="str">
         <f t="shared" ref="B13" si="14">TEXT(A13,"dddd")</f>
         <v>Sunday</v>
       </c>
@@ -1210,7 +1154,7 @@
       <c r="D13" s="1">
         <v>0.33541666666666664</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="4">
         <v>95</v>
       </c>
       <c r="F13">
@@ -1220,21 +1164,21 @@
       <c r="G13" s="1">
         <v>0.7944444444444444</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="4">
         <v>123</v>
       </c>
       <c r="I13">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K13" s="7"/>
+      <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+      <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>45670</v>
       </c>
-      <c r="B14" s="11" t="str">
+      <c r="B14" s="7" t="str">
         <f t="shared" ref="B14" si="15">TEXT(A14,"dddd")</f>
         <v>Monday</v>
       </c>
@@ -1245,7 +1189,7 @@
       <c r="D14" s="1">
         <v>0.26458333333333334</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="4">
         <v>89</v>
       </c>
       <c r="F14">
@@ -1255,7 +1199,7 @@
       <c r="G14" s="1">
         <v>0.79722222222222228</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="4">
         <v>114</v>
       </c>
       <c r="I14">
@@ -1264,11 +1208,11 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>45671</v>
       </c>
-      <c r="B15" s="11" t="str">
+      <c r="B15" s="7" t="str">
         <f t="shared" ref="B15" si="16">TEXT(A15,"dddd")</f>
         <v>Tuesday</v>
       </c>
@@ -1279,7 +1223,7 @@
       <c r="D15" s="1">
         <v>0.25972222222222224</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="4">
         <v>92</v>
       </c>
       <c r="F15">
@@ -1289,7 +1233,7 @@
       <c r="G15" s="1">
         <v>0.7944444444444444</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="4">
         <v>89</v>
       </c>
       <c r="I15">
@@ -1298,11 +1242,11 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>45672</v>
       </c>
-      <c r="B16" s="11" t="str">
+      <c r="B16" s="7" t="str">
         <f t="shared" ref="B16" si="17">TEXT(A16,"dddd")</f>
         <v>Wednesday</v>
       </c>
@@ -1468,7 +1412,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -1484,16 +1428,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25"/>
-      <c r="E1" s="23" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="15"/>
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1519,14 +1463,14 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="16">
+      <c r="B3" s="4"/>
+      <c r="C3" s="10">
         <v>53</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="10">
         <v>53</v>
       </c>
     </row>
@@ -1534,283 +1478,82 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="9">
         <v>54</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="9">
         <v>69</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="9">
         <v>54</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="9">
         <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="8">
         <v>70</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="8">
         <v>130</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="5">
         <v>70</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="5">
         <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="12">
         <v>131</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="12">
         <v>249</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="12">
         <v>181</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="12">
         <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="11">
         <v>250</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="E7" s="5" t="s">
+      <c r="C7" s="11"/>
+      <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="11">
         <v>250</v>
       </c>
-      <c r="G7" s="17"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="E10" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="9">
-        <v>4</v>
-      </c>
-      <c r="C12" s="9">
-        <v>5.6</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="9">
-        <v>4</v>
-      </c>
-      <c r="G12" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="21">
-        <v>5.7</v>
-      </c>
-      <c r="C13" s="21">
-        <v>6.4</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="21">
-        <v>7.1</v>
-      </c>
-      <c r="G13" s="21">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="22">
-        <v>6.5</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="E14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="22">
-        <v>9</v>
-      </c>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="E17" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="25"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="19">
-        <v>4</v>
-      </c>
-      <c r="C19" s="19">
-        <v>5.6</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="8">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="20">
-        <v>5.7</v>
-      </c>
-      <c r="C20" s="20">
-        <v>7</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="18">
-        <v>100</v>
-      </c>
-      <c r="G20" s="18">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="21">
-        <v>7.1</v>
-      </c>
-      <c r="C21" s="21">
-        <v>8.9</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="17">
-        <v>126</v>
-      </c>
-      <c r="G21" s="15"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="22">
-        <v>9</v>
-      </c>
-      <c r="C22" s="14"/>
+      <c r="G7" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="2">
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="E17:G17"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/Blood Glucose Readings Sample.xlsx
+++ b/Blood Glucose Readings Sample.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clock\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B0FC70-07AE-4917-BAA4-D8A30AB3551C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33AA5B1-2267-40E0-96E5-E24A0D669E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7361EE35-3D7C-4807-A2B6-0F0F4725CD8D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7361EE35-3D7C-4807-A2B6-0F0F4725CD8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Readings" sheetId="1" r:id="rId1"/>
     <sheet name="Key" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Readings!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Readings!$A$1:$O$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Readings!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -113,6 +113,18 @@
   </si>
   <si>
     <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Finger EX2</t>
+  </si>
+  <si>
+    <t>Time EX2</t>
+  </si>
+  <si>
+    <t>Value EX2</t>
+  </si>
+  <si>
+    <t>Extra readings to validate CGM readings</t>
   </si>
 </sst>
 </file>
@@ -120,7 +132,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -261,7 +273,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -690,7 +702,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -699,12 +711,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="11" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="40" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="13.28515625" customWidth="1"/>
+    <col min="1" max="14" width="13.28515625" customWidth="1"/>
+    <col min="15" max="15" width="40" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -739,10 +751,19 @@
         <v>21</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>45658</v>
       </c>
@@ -771,8 +792,10 @@
         <v>2</v>
       </c>
       <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f t="shared" ref="A3:A16" si="0">A2+1</f>
         <v>45659</v>
@@ -806,8 +829,10 @@
         <v>3</v>
       </c>
       <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f t="shared" si="0"/>
         <v>45660</v>
@@ -841,8 +866,10 @@
         <v>4</v>
       </c>
       <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f t="shared" si="0"/>
         <v>45661</v>
@@ -876,8 +903,10 @@
         <v>1</v>
       </c>
       <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>45662</v>
@@ -911,8 +940,10 @@
         <v>2</v>
       </c>
       <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>45663</v>
@@ -946,8 +977,10 @@
         <v>3</v>
       </c>
       <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>45664</v>
@@ -981,8 +1014,10 @@
         <v>4</v>
       </c>
       <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>45665</v>
@@ -1016,8 +1051,10 @@
         <v>1</v>
       </c>
       <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>45666</v>
@@ -1051,8 +1088,10 @@
         <v>2</v>
       </c>
       <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>45667</v>
@@ -1091,11 +1130,13 @@
       <c r="K11" s="4">
         <v>72</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <f>A11+1</f>
         <v>45668</v>
@@ -1119,10 +1160,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="1">
-        <v>0.79513888888888884</v>
+        <v>0.79305555555555551</v>
       </c>
       <c r="H12" s="4">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="I12">
         <f t="shared" si="4"/>
@@ -1134,11 +1175,20 @@
       <c r="K12" s="4">
         <v>83</v>
       </c>
-      <c r="L12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0.81874999999999998</v>
+      </c>
+      <c r="N12" s="4">
+        <v>78</v>
+      </c>
+      <c r="O12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>45669</v>
@@ -1172,8 +1222,10 @@
         <v>1</v>
       </c>
       <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>45670</v>
@@ -1206,8 +1258,9 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>45671</v>
@@ -1240,8 +1293,9 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>45672</v>
@@ -1399,7 +1453,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K2:K13 H2:H15</xm:sqref>
+          <xm:sqref>K2:K13 M13 M2:M11 N2:N15 H2:H15</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
